--- a/进度说明.xlsx
+++ b/进度说明.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\xmzhou\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\xmzhou\Desktop\zerion\zerion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5037F1-93CD-45B0-A869-04DD6DD49619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E039B3-A4E6-4EB1-B139-ED5B1AB16A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,6 +73,14 @@
   </si>
   <si>
     <t>1、左边抽屉效果完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、图组件开发，未全部开发完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、概览页下面资产展示页面开发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -483,6 +491,40 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/进度说明.xlsx
+++ b/进度说明.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\xmzhou\Desktop\zerion\zerion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E039B3-A4E6-4EB1-B139-ED5B1AB16A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C885BD5-8405-403D-B22F-BACC37DC1BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,30 @@
   </si>
   <si>
     <t>1、概览页下面资产展示页面开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、图标库组件重构、历史页面开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、历史页面开发完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -525,6 +549,40 @@
         <v>3</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>44381</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
